--- a/Webservice/Testdata/API data.xlsx
+++ b/Webservice/Testdata/API data.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4C07C40D-782A-4C9C-94E1-D705FC227F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\151508\git\Webservice\Webservice\Testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0FD05B-4B65-4852-A748-CB05EC7563BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get " sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F16"/>
 </workbook>
 </file>
 
@@ -247,18 +251,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,60 +625,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -768,9 +772,6 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:L1"/>
@@ -933,5 +934,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>